--- a/public/crossword.xlsx
+++ b/public/crossword.xlsx
@@ -178,7 +178,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -492,7 +506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R19"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,12 +533,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsBlanks" dxfId="1" priority="7">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:K19 I20:I21 I10:I18 H10 J10:AB10 O3:O9 O11:O14 P13:Z13 R12 R14:R16">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="7">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
